--- a/results/QBE.xlsx
+++ b/results/QBE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6614,6 +6614,2118 @@
       </c>
       <c r="P127" t="n">
         <v>-17.37199132723855</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>22</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>0.1718693226575851</v>
+      </c>
+      <c r="E128" t="n">
+        <v>38.41551315225351</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>39.61357470408352</v>
+      </c>
+      <c r="H128" t="n">
+        <v>35</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-11.76467977901671</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1.198061551830008</v>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>222</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>0.5139700770378113</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.02266685546435</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>12.52803396846601</v>
+      </c>
+      <c r="H129" t="n">
+        <v>52</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-12.68656905024917</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>26</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-11.74215500962717</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.5053671130016539</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-23.76482186509153</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-24.27018897809318</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>269</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>0.5385330319404602</v>
+      </c>
+      <c r="E130" t="n">
+        <v>54.05932539649599</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>66.03285967979275</v>
+      </c>
+      <c r="H130" t="n">
+        <v>45</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>11.97353428329676</v>
+      </c>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>351</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>0.845162570476532</v>
+      </c>
+      <c r="E131" t="n">
+        <v>27.89668164724014</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>27.89668164724014</v>
+      </c>
+      <c r="H131" t="n">
+        <v>50</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-7.692311740053561</v>
+      </c>
+      <c r="J131" t="n">
+        <v>10</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>539</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>2.164300680160522</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-3.948551042743612</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>14.30119899025415</v>
+      </c>
+      <c r="H132" t="n">
+        <v>47</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-14.68701719096229</v>
+      </c>
+      <c r="J132" t="n">
+        <v>14</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>37</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-0.1085843550180745</v>
+      </c>
+      <c r="N132" t="n">
+        <v>18.24975003299776</v>
+      </c>
+      <c r="O132" t="n">
+        <v>3.839966687725538</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-14.40978334527222</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>566</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>2.34296727180481</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.720229849710754</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.584984346456313</v>
+      </c>
+      <c r="H133" t="n">
+        <v>20</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-19.55430866633899</v>
+      </c>
+      <c r="J133" t="n">
+        <v>27</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>10</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-7.725958691648832</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3.864754496745558</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-9.446188541359586</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-13.31094303810514</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>620</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>2.472376108169556</v>
+      </c>
+      <c r="E134" t="n">
+        <v>44.36948602286018</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>50.97950617571904</v>
+      </c>
+      <c r="H134" t="n">
+        <v>48</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-7.27572914294517</v>
+      </c>
+      <c r="J134" t="n">
+        <v>23</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>21</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-0.7200264380639639</v>
+      </c>
+      <c r="N134" t="n">
+        <v>6.610020152858858</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-45.08951246092414</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-51.699532613783</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>655</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>3.219711780548096</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22.85686569982485</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>38.43021999588059</v>
+      </c>
+      <c r="H135" t="n">
+        <v>34</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-6.09818330851404</v>
+      </c>
+      <c r="J135" t="n">
+        <v>5</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>15.57335429605574</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>679</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>3.751353740692138</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-22.80196065695379</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>18.81188523222743</v>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-67.01613086195179</v>
+      </c>
+      <c r="J136" t="n">
+        <v>33</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>30</v>
+      </c>
+      <c r="M136" t="n">
+        <v>5.940613377713631</v>
+      </c>
+      <c r="N136" t="n">
+        <v>41.61384588918121</v>
+      </c>
+      <c r="O136" t="n">
+        <v>28.74257403466742</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-12.87127185451379</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>689</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>4.211915969848633</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-35.1848369551189</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.820109730398789</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-70.62283251629925</v>
+      </c>
+      <c r="J137" t="n">
+        <v>23</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>20</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-5.643721496184536</v>
+      </c>
+      <c r="N137" t="n">
+        <v>41.00494668551769</v>
+      </c>
+      <c r="O137" t="n">
+        <v>29.54111545893437</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-11.46383122658333</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>733</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>3.048390626907349</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.16935451514198</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>8.685243739999832</v>
+      </c>
+      <c r="H138" t="n">
+        <v>47</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-22.92991866751287</v>
+      </c>
+      <c r="J138" t="n">
+        <v>18</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>16</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-10.44585365556074</v>
+      </c>
+      <c r="N138" t="n">
+        <v>6.515889224857851</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-12.61520817070272</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-19.13109739556057</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>770</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>3.134382963180542</v>
+      </c>
+      <c r="E139" t="n">
+        <v>36.28008250070076</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>37.60314835483931</v>
+      </c>
+      <c r="H139" t="n">
+        <v>51</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-7.351064357298132</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1.323065854138555</v>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>845</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>4.774986267089844</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39.38447585509381</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>44.50583927907577</v>
+      </c>
+      <c r="H140" t="n">
+        <v>45</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-3.01152228712099</v>
+      </c>
+      <c r="J140" t="n">
+        <v>5</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>5.121363423981954</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>867</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>5.564067840576172</v>
+      </c>
+      <c r="E141" t="n">
+        <v>38.87423239066302</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>42.49704459520964</v>
+      </c>
+      <c r="H141" t="n">
+        <v>52</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-3.175831543439531</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>32</v>
+      </c>
+      <c r="M141" t="n">
+        <v>20.48641939082139</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3.622812204546619</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-18.38781299984162</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-22.01062520438824</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>955</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>10.36745452880859</v>
+      </c>
+      <c r="E142" t="n">
+        <v>45.54717919055577</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>51.7124110177448</v>
+      </c>
+      <c r="H142" t="n">
+        <v>41</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-11.1306806641823</v>
+      </c>
+      <c r="J142" t="n">
+        <v>4</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>6.165231827189032</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>971</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>11.01937580108643</v>
+      </c>
+      <c r="E143" t="n">
+        <v>44.99398640530356</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>49.57999083433337</v>
+      </c>
+      <c r="H143" t="n">
+        <v>51</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-4.968412602425568</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>46</v>
+      </c>
+      <c r="M143" t="n">
+        <v>27.97875453291414</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4.586004429029813</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-17.01523187238942</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-21.60123630141923</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1078</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>13.78213882446289</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-5.435577464671794</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.330854541693121</v>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-42.70621826406513</v>
+      </c>
+      <c r="J144" t="n">
+        <v>24</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>22</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-29.9264926700259</v>
+      </c>
+      <c r="N144" t="n">
+        <v>10.76643200636492</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-24.49091520535411</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-35.25734721171902</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>13.14876556396484</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-7.460971838218441</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>10.4046195615024</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-39.94638889697965</v>
+      </c>
+      <c r="J145" t="n">
+        <v>17</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-26.5510666198609</v>
+      </c>
+      <c r="N145" t="n">
+        <v>17.86559139972084</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-19.09009478164246</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-36.9556861813633</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>12.16273403167725</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-22.38577318583664</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>14.26926515163658</v>
+      </c>
+      <c r="H146" t="n">
+        <v>19</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-25.41505513561274</v>
+      </c>
+      <c r="J146" t="n">
+        <v>49</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>40</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-9.947276644755645</v>
+      </c>
+      <c r="N146" t="n">
+        <v>36.65503833747321</v>
+      </c>
+      <c r="O146" t="n">
+        <v>12.43849654108099</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-24.21654179639222</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1129</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>12.81668949127197</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-18.84723228704411</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>8.438819632871496</v>
+      </c>
+      <c r="H147" t="n">
+        <v>15</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-29.22065812933847</v>
+      </c>
+      <c r="J147" t="n">
+        <v>45</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>36</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-14.54210357956119</v>
+      </c>
+      <c r="N147" t="n">
+        <v>27.28605191991561</v>
+      </c>
+      <c r="O147" t="n">
+        <v>4.305128707482929</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-22.98092321243268</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>10.6674976348877</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-18.27756233370482</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>10.44913919491822</v>
+      </c>
+      <c r="H148" t="n">
+        <v>20</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-30.96929507234285</v>
+      </c>
+      <c r="J148" t="n">
+        <v>36</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>32</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-2.342673428406064</v>
+      </c>
+      <c r="N148" t="n">
+        <v>28.72670152862304</v>
+      </c>
+      <c r="O148" t="n">
+        <v>15.93488890529875</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-12.79181262332428</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>11.02655601501465</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-34.45782552116893</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6.852577498614987</v>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-43.64172140906456</v>
+      </c>
+      <c r="J149" t="n">
+        <v>47</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>22</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-5.522694591730177</v>
+      </c>
+      <c r="N149" t="n">
+        <v>41.31040301978391</v>
+      </c>
+      <c r="O149" t="n">
+        <v>28.93513092943875</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-12.37527209034516</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1262</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>9.053463935852051</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.019630273947423</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4.446804016961535</v>
+      </c>
+      <c r="H150" t="n">
+        <v>28</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-26.76298642817437</v>
+      </c>
+      <c r="J150" t="n">
+        <v>35</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-7.23405958657972</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3.427173743014112</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-8.253689860527142</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-11.68086360354125</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>9.456053733825684</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.157001978035946</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>23.57721165221009</v>
+      </c>
+      <c r="H151" t="n">
+        <v>43</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-29.88103919394951</v>
+      </c>
+      <c r="J151" t="n">
+        <v>7</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>48</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5.299206052489509</v>
+      </c>
+      <c r="N151" t="n">
+        <v>19.42020967417414</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.142204074453563</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-18.27800559972058</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1319</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>9.70571994781494</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-18.33958506207756</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>20.39835889997276</v>
+      </c>
+      <c r="H152" t="n">
+        <v>14</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-30.09934029628242</v>
+      </c>
+      <c r="J152" t="n">
+        <v>32</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>19</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2.59052969951909</v>
+      </c>
+      <c r="N152" t="n">
+        <v>38.73794396205032</v>
+      </c>
+      <c r="O152" t="n">
+        <v>20.93011476159666</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-17.80782920045367</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1413</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>8.97059154510498</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-15.42485621676513</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>17.44428451775308</v>
+      </c>
+      <c r="H153" t="n">
+        <v>21</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-24.48648658673783</v>
+      </c>
+      <c r="J153" t="n">
+        <v>50</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>18</v>
+      </c>
+      <c r="M153" t="n">
+        <v>11.10230145666538</v>
+      </c>
+      <c r="N153" t="n">
+        <v>32.86914073451821</v>
+      </c>
+      <c r="O153" t="n">
+        <v>26.5271576734305</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-6.341983061087706</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1476</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>8.646893501281738</v>
+      </c>
+      <c r="E154" t="n">
+        <v>19.02242491252547</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>20.97652685346596</v>
+      </c>
+      <c r="H154" t="n">
+        <v>52</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-20.1620366295136</v>
+      </c>
+      <c r="J154" t="n">
+        <v>26</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>17</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-16.74351557997888</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.954101940940486</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-35.76594049250435</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-37.72004243344483</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>9.324408531188965</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-9.100757454652083</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12.18632692442583</v>
+      </c>
+      <c r="H155" t="n">
+        <v>14</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-18.85499674132236</v>
+      </c>
+      <c r="J155" t="n">
+        <v>35</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>11</v>
+      </c>
+      <c r="M155" t="n">
+        <v>3.043401019355856</v>
+      </c>
+      <c r="N155" t="n">
+        <v>21.28708437907791</v>
+      </c>
+      <c r="O155" t="n">
+        <v>12.14415847400794</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-9.142925905069974</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1528</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>10.2917423248291</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-21.89775191504117</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.641793084266798</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-28.01742800527735</v>
+      </c>
+      <c r="J156" t="n">
+        <v>48</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>14</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-19.62685307209984</v>
+      </c>
+      <c r="N156" t="n">
+        <v>23.53954499930797</v>
+      </c>
+      <c r="O156" t="n">
+        <v>2.270898842941328</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-21.26864615636664</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>8.936198234558105</v>
+      </c>
+      <c r="E157" t="n">
+        <v>18.45730806636256</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>21.08550547588243</v>
+      </c>
+      <c r="H157" t="n">
+        <v>51</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-14.56834814310679</v>
+      </c>
+      <c r="J157" t="n">
+        <v>13</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>35</v>
+      </c>
+      <c r="M157" t="n">
+        <v>7.337014260935342</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2.628197409519867</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-11.12029380542722</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-13.74849121494709</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>10.30692100524902</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-32.01232652237917</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>23.61866870902708</v>
+      </c>
+      <c r="H158" t="n">
+        <v>48</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-36.00182722746108</v>
+      </c>
+      <c r="J158" t="n">
+        <v>52</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>10</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-6.937790941366206</v>
+      </c>
+      <c r="N158" t="n">
+        <v>55.63099523140625</v>
+      </c>
+      <c r="O158" t="n">
+        <v>25.07453558101296</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-30.55645965039329</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1648</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>10.51008796691894</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-12.70841601919891</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>21.22903796508422</v>
+      </c>
+      <c r="H159" t="n">
+        <v>25</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-41.88490744417371</v>
+      </c>
+      <c r="J159" t="n">
+        <v>30</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>33.93745398428313</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>10.82882881164551</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-30.28482102361546</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>17.66072539513899</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-43.59549443514044</v>
+      </c>
+      <c r="J160" t="n">
+        <v>20</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>47.94554641875445</v>
+      </c>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1668</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>11.65923595428467</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-36.79883882952118</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9.280561621172136</v>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-47.61279921237816</v>
+      </c>
+      <c r="J161" t="n">
+        <v>10</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>46.07940045069331</v>
+      </c>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1693</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>7.93262243270874</v>
+      </c>
+      <c r="E162" t="n">
+        <v>13.811677926943</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>25.62642664419648</v>
+      </c>
+      <c r="H162" t="n">
+        <v>49</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-14.58705438301108</v>
+      </c>
+      <c r="J162" t="n">
+        <v>30</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>28</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-8.40869287923147</v>
+      </c>
+      <c r="N162" t="n">
+        <v>11.81474871725348</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-22.22037080617447</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-34.03511952342795</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1736</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>9.140028953552246</v>
+      </c>
+      <c r="E163" t="n">
+        <v>22.11702506726043</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>22.79330309379272</v>
+      </c>
+      <c r="H163" t="n">
+        <v>52</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-7.808089508658571</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>11</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.6762780265322874</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-22.11702506726043</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-22.79330309379272</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>10.8167028427124</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.0775250867671739</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4.902271181840366</v>
+      </c>
+      <c r="H164" t="n">
+        <v>40</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-19.8109060965644</v>
+      </c>
+      <c r="J164" t="n">
+        <v>30</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>18</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-9.225926159404734</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4.979796268607539</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-9.14840107263756</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-14.1281973412451</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>10.94635772705078</v>
+      </c>
+      <c r="E165" t="n">
+        <v>7.53232594139374</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>13.38443116388997</v>
+      </c>
+      <c r="H165" t="n">
+        <v>50</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-20.7607113152954</v>
+      </c>
+      <c r="J165" t="n">
+        <v>4</v>
+      </c>
+      <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>5.852105222496231</v>
+      </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>10.7210168838501</v>
+      </c>
+      <c r="E166" t="n">
+        <v>31.18267259845642</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>35.90405504516742</v>
+      </c>
+      <c r="H166" t="n">
+        <v>45</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-7.012460766626343</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>43</v>
+      </c>
+      <c r="M166" t="n">
+        <v>26.92846991331727</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4.721382446711001</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-4.254202685139152</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-8.975585131850153</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>11.22815036773682</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.95047109334478</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>32.43853334182331</v>
+      </c>
+      <c r="H167" t="n">
+        <v>50</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-5.705226105118257</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>36</v>
+      </c>
+      <c r="M167" t="n">
+        <v>21.19558648698623</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4.488062248478528</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-6.754884606358548</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-11.24294685483708</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1821</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>11.75308036804199</v>
+      </c>
+      <c r="E168" t="n">
+        <v>14.20627461964861</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>26.52340665413589</v>
+      </c>
+      <c r="H168" t="n">
+        <v>43</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-4.012105385959595</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>29</v>
+      </c>
+      <c r="M168" t="n">
+        <v>15.7826056122372</v>
+      </c>
+      <c r="N168" t="n">
+        <v>12.31713203448728</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.57633099258859</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-10.74080104189869</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1861</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>14.39395904541016</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8.938857071680165</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>22.2491359549761</v>
+      </c>
+      <c r="H169" t="n">
+        <v>36</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-12.15785810723784</v>
+      </c>
+      <c r="J169" t="n">
+        <v>11</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>7</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-4.392102117780505</v>
+      </c>
+      <c r="N169" t="n">
+        <v>13.31027888329593</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-13.33095918946067</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-26.6412380727566</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>16.55031585693359</v>
+      </c>
+      <c r="E170" t="n">
+        <v>24.11438479903268</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>30.98988281773722</v>
+      </c>
+      <c r="H170" t="n">
+        <v>51</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-11.78815435132372</v>
+      </c>
+      <c r="J170" t="n">
+        <v>21</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>8</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.2847484629714058</v>
+      </c>
+      <c r="N170" t="n">
+        <v>6.87549801870454</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-23.82963633606127</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-30.70513435476581</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>18.92389106750488</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.784149462650533</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>26.04790608022268</v>
+      </c>
+      <c r="H171" t="n">
+        <v>28</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-5.712844902918857</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>42</v>
+      </c>
+      <c r="M171" t="n">
+        <v>10.01965515736473</v>
+      </c>
+      <c r="N171" t="n">
+        <v>22.26375661757215</v>
+      </c>
+      <c r="O171" t="n">
+        <v>6.235505694714194</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-16.02825092285795</v>
       </c>
     </row>
   </sheetData>
@@ -6627,7 +8739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6840,40 +8952,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59.09090909090909</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.896343497207082</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.970575720343239</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.37479780030116</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.83484465832048</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-21.66244614890785</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.9385011611134</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24.36363636363636</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45.45454545454545</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-3.244150983620664</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>16.9006878151277</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>17.61178421555069</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>25.69562079941193</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>30.28987507780173</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-14.00020322968283</v>
       </c>
     </row>
